--- a/ConvertedEqual/Texas_Converted.xlsx
+++ b/ConvertedEqual/Texas_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="285">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -834,6 +834,42 @@
   </si>
   <si>
     <t>9/29/2020</t>
+  </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1231,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ221"/>
+  <dimension ref="A1:AJ233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1695,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0.3333333333</v>
@@ -1713,7 +1749,7 @@
         <v>0.25</v>
       </c>
       <c r="AD7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1731,7 +1767,7 @@
         <v>0.3333333333</v>
       </c>
       <c r="AJ7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -3826,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="28" spans="1:36">
@@ -3936,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="AJ28">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:36">
@@ -4046,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="AJ29">
-        <v>0.3064102564076923</v>
+        <v>0.3319444444416667</v>
       </c>
     </row>
     <row r="30" spans="1:36">
@@ -4156,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="AJ30">
-        <v>0.3064102564076923</v>
+        <v>0.3319444444416667</v>
       </c>
     </row>
     <row r="31" spans="1:36">
@@ -4266,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="AJ31">
-        <v>0.3064102564076923</v>
+        <v>0.3319444444416667</v>
       </c>
     </row>
     <row r="32" spans="1:36">
@@ -4376,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="AJ32">
-        <v>0.3064102564076923</v>
+        <v>0.3319444444416667</v>
       </c>
     </row>
     <row r="33" spans="1:36">
@@ -4486,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="AJ33">
-        <v>0.3064102564076923</v>
+        <v>0.3319444444416667</v>
       </c>
     </row>
     <row r="34" spans="1:36">
@@ -4596,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="AJ34">
-        <v>0.3064102564076923</v>
+        <v>0.3319444444416667</v>
       </c>
     </row>
     <row r="35" spans="1:36">
@@ -4706,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="AJ35">
-        <v>0.3064102564076923</v>
+        <v>0.3319444444416667</v>
       </c>
     </row>
     <row r="36" spans="1:36">
@@ -4816,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="AJ36">
-        <v>0.3064102564076923</v>
+        <v>0.3319444444416667</v>
       </c>
     </row>
     <row r="37" spans="1:36">
@@ -4926,7 +4962,7 @@
         <v>0</v>
       </c>
       <c r="AJ37">
-        <v>0.3064102564076923</v>
+        <v>0.3319444444416667</v>
       </c>
     </row>
     <row r="38" spans="1:36">
@@ -5036,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="AJ38">
-        <v>0.3064102564076923</v>
+        <v>0.3319444444416667</v>
       </c>
     </row>
     <row r="39" spans="1:36">
@@ -5146,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="AJ39">
-        <v>0.3064102564076923</v>
+        <v>0.3319444444416667</v>
       </c>
     </row>
     <row r="40" spans="1:36">
@@ -5256,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="AJ40">
-        <v>0.3064102564076923</v>
+        <v>0.3319444444416667</v>
       </c>
     </row>
     <row r="41" spans="1:36">
@@ -5366,7 +5402,7 @@
         <v>1</v>
       </c>
       <c r="AJ41">
-        <v>0.8269230769076924</v>
+        <v>0.8124999999833334</v>
       </c>
     </row>
     <row r="42" spans="1:36">
@@ -5476,7 +5512,7 @@
         <v>1</v>
       </c>
       <c r="AJ42">
-        <v>0.8269230769076924</v>
+        <v>0.8124999999833334</v>
       </c>
     </row>
     <row r="43" spans="1:36">
@@ -5586,7 +5622,7 @@
         <v>1</v>
       </c>
       <c r="AJ43">
-        <v>0.8269230769076924</v>
+        <v>0.8124999999833334</v>
       </c>
     </row>
     <row r="44" spans="1:36">
@@ -5696,7 +5732,7 @@
         <v>1</v>
       </c>
       <c r="AJ44">
-        <v>0.8269230769076924</v>
+        <v>0.8124999999833334</v>
       </c>
     </row>
     <row r="45" spans="1:36">
@@ -5806,7 +5842,7 @@
         <v>1</v>
       </c>
       <c r="AJ45">
-        <v>0.8269230769076924</v>
+        <v>0.8124999999833334</v>
       </c>
     </row>
     <row r="46" spans="1:36">
@@ -5916,7 +5952,7 @@
         <v>1</v>
       </c>
       <c r="AJ46">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="47" spans="1:36">
@@ -6026,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="AJ47">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="48" spans="1:36">
@@ -6136,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="AJ48">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="49" spans="1:36">
@@ -6246,7 +6282,7 @@
         <v>1</v>
       </c>
       <c r="AJ49">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="50" spans="1:36">
@@ -6356,7 +6392,7 @@
         <v>1</v>
       </c>
       <c r="AJ50">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="51" spans="1:36">
@@ -6466,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="AJ51">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="52" spans="1:36">
@@ -6576,7 +6612,7 @@
         <v>1</v>
       </c>
       <c r="AJ52">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="53" spans="1:36">
@@ -6686,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="AJ53">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="54" spans="1:36">
@@ -6796,7 +6832,7 @@
         <v>1</v>
       </c>
       <c r="AJ54">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="55" spans="1:36">
@@ -6906,7 +6942,7 @@
         <v>1</v>
       </c>
       <c r="AJ55">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="56" spans="1:36">
@@ -7016,7 +7052,7 @@
         <v>1</v>
       </c>
       <c r="AJ56">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="57" spans="1:36">
@@ -7126,7 +7162,7 @@
         <v>1</v>
       </c>
       <c r="AJ57">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="58" spans="1:36">
@@ -7236,7 +7272,7 @@
         <v>1</v>
       </c>
       <c r="AJ58">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="59" spans="1:36">
@@ -7346,7 +7382,7 @@
         <v>1</v>
       </c>
       <c r="AJ59">
-        <v>0.8461538461384617</v>
+        <v>0.8333333333166668</v>
       </c>
     </row>
     <row r="60" spans="1:36">
@@ -7456,7 +7492,7 @@
         <v>1</v>
       </c>
       <c r="AJ60">
-        <v>0.8269230769076924</v>
+        <v>0.8124999999833334</v>
       </c>
     </row>
     <row r="61" spans="1:36">
@@ -7566,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="AJ61">
-        <v>0.8269230769076924</v>
+        <v>0.8124999999833334</v>
       </c>
     </row>
     <row r="62" spans="1:36">
@@ -7676,7 +7712,7 @@
         <v>1</v>
       </c>
       <c r="AJ62">
-        <v>0.8269230769076924</v>
+        <v>0.8124999999833334</v>
       </c>
     </row>
     <row r="63" spans="1:36">
@@ -7786,7 +7822,7 @@
         <v>1</v>
       </c>
       <c r="AJ63">
-        <v>0.8269230769076924</v>
+        <v>0.8124999999833334</v>
       </c>
     </row>
     <row r="64" spans="1:36">
@@ -7896,7 +7932,7 @@
         <v>1</v>
       </c>
       <c r="AJ64">
-        <v>0.8269230769076924</v>
+        <v>0.8124999999833334</v>
       </c>
     </row>
     <row r="65" spans="1:36">
@@ -8006,7 +8042,7 @@
         <v>1</v>
       </c>
       <c r="AJ65">
-        <v>0.8269230769076924</v>
+        <v>0.8124999999833334</v>
       </c>
     </row>
     <row r="66" spans="1:36">
@@ -8116,7 +8152,7 @@
         <v>1</v>
       </c>
       <c r="AJ66">
-        <v>0.8269230769076924</v>
+        <v>0.8124999999833334</v>
       </c>
     </row>
     <row r="67" spans="1:36">
@@ -8226,7 +8262,7 @@
         <v>1</v>
       </c>
       <c r="AJ67">
-        <v>0.8269230769076924</v>
+        <v>0.8124999999833334</v>
       </c>
     </row>
     <row r="68" spans="1:36">
@@ -8336,7 +8372,7 @@
         <v>1</v>
       </c>
       <c r="AJ68">
-        <v>0.8269230769076924</v>
+        <v>0.8124999999833334</v>
       </c>
     </row>
     <row r="69" spans="1:36">
@@ -8446,7 +8482,7 @@
         <v>1</v>
       </c>
       <c r="AJ69">
-        <v>0.8269230769076924</v>
+        <v>0.8124999999833334</v>
       </c>
     </row>
     <row r="70" spans="1:36">
@@ -8556,7 +8592,7 @@
         <v>1</v>
       </c>
       <c r="AJ70">
-        <v>0.7499999999846155</v>
+        <v>0.7291666666500002</v>
       </c>
     </row>
     <row r="71" spans="1:36">
@@ -8666,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="AJ71">
-        <v>0.6089743589615385</v>
+        <v>0.5763888888750001</v>
       </c>
     </row>
     <row r="72" spans="1:36">
@@ -8776,7 +8812,7 @@
         <v>1</v>
       </c>
       <c r="AJ72">
-        <v>0.6089743589615385</v>
+        <v>0.5763888888750001</v>
       </c>
     </row>
     <row r="73" spans="1:36">
@@ -8886,7 +8922,7 @@
         <v>1</v>
       </c>
       <c r="AJ73">
-        <v>0.6089743589615385</v>
+        <v>0.5763888888750001</v>
       </c>
     </row>
     <row r="74" spans="1:36">
@@ -8996,7 +9032,7 @@
         <v>1</v>
       </c>
       <c r="AJ74">
-        <v>0.6089743589615385</v>
+        <v>0.5763888888750001</v>
       </c>
     </row>
     <row r="75" spans="1:36">
@@ -9106,7 +9142,7 @@
         <v>1</v>
       </c>
       <c r="AJ75">
-        <v>0.6089743589615385</v>
+        <v>0.5763888888750001</v>
       </c>
     </row>
     <row r="76" spans="1:36">
@@ -9216,7 +9252,7 @@
         <v>1</v>
       </c>
       <c r="AJ76">
-        <v>0.6089743589615385</v>
+        <v>0.5763888888750001</v>
       </c>
     </row>
     <row r="77" spans="1:36">
@@ -9326,7 +9362,7 @@
         <v>1</v>
       </c>
       <c r="AJ77">
-        <v>0.6089743589615385</v>
+        <v>0.5763888888750001</v>
       </c>
     </row>
     <row r="78" spans="1:36">
@@ -9436,7 +9472,7 @@
         <v>1</v>
       </c>
       <c r="AJ78">
-        <v>0.5589743589615386</v>
+        <v>0.5222222222083334</v>
       </c>
     </row>
     <row r="79" spans="1:36">
@@ -9546,7 +9582,7 @@
         <v>1</v>
       </c>
       <c r="AJ79">
-        <v>0.5589743589615386</v>
+        <v>0.5222222222083334</v>
       </c>
     </row>
     <row r="80" spans="1:36">
@@ -9656,7 +9692,7 @@
         <v>1</v>
       </c>
       <c r="AJ80">
-        <v>0.5589743589615386</v>
+        <v>0.5222222222083334</v>
       </c>
     </row>
     <row r="81" spans="1:36">
@@ -9766,7 +9802,7 @@
         <v>1</v>
       </c>
       <c r="AJ81">
-        <v>0.5589743589615386</v>
+        <v>0.5222222222083334</v>
       </c>
     </row>
     <row r="82" spans="1:36">
@@ -9876,7 +9912,7 @@
         <v>1</v>
       </c>
       <c r="AJ82">
-        <v>0.5589743589615386</v>
+        <v>0.5222222222083334</v>
       </c>
     </row>
     <row r="83" spans="1:36">
@@ -9986,7 +10022,7 @@
         <v>1</v>
       </c>
       <c r="AJ83">
-        <v>0.5589743589615386</v>
+        <v>0.5222222222083334</v>
       </c>
     </row>
     <row r="84" spans="1:36">
@@ -10096,7 +10132,7 @@
         <v>1</v>
       </c>
       <c r="AJ84">
-        <v>0.5589743589615386</v>
+        <v>0.5222222222083334</v>
       </c>
     </row>
     <row r="85" spans="1:36">
@@ -10206,7 +10242,7 @@
         <v>1</v>
       </c>
       <c r="AJ85">
-        <v>0.5589743589615386</v>
+        <v>0.5222222222083334</v>
       </c>
     </row>
     <row r="86" spans="1:36">
@@ -10316,7 +10352,7 @@
         <v>1</v>
       </c>
       <c r="AJ86">
-        <v>0.5589743589615386</v>
+        <v>0.5222222222083334</v>
       </c>
     </row>
     <row r="87" spans="1:36">
@@ -10426,7 +10462,7 @@
         <v>1</v>
       </c>
       <c r="AJ87">
-        <v>0.5589743589615386</v>
+        <v>0.5222222222083334</v>
       </c>
     </row>
     <row r="88" spans="1:36">
@@ -10536,7 +10572,7 @@
         <v>1</v>
       </c>
       <c r="AJ88">
-        <v>0.4102564102461538</v>
+        <v>0.4444444444333333</v>
       </c>
     </row>
     <row r="89" spans="1:36">
@@ -10646,7 +10682,7 @@
         <v>1</v>
       </c>
       <c r="AJ89">
-        <v>0.4102564102461538</v>
+        <v>0.4444444444333333</v>
       </c>
     </row>
     <row r="90" spans="1:36">
@@ -10756,7 +10792,7 @@
         <v>1</v>
       </c>
       <c r="AJ90">
-        <v>0.4102564102461538</v>
+        <v>0.4444444444333333</v>
       </c>
     </row>
     <row r="91" spans="1:36">
@@ -10866,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="AJ91">
-        <v>0.4102564102461538</v>
+        <v>0.4444444444333333</v>
       </c>
     </row>
     <row r="92" spans="1:36">
@@ -10976,7 +11012,7 @@
         <v>0</v>
       </c>
       <c r="AJ92">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="93" spans="1:36">
@@ -11086,7 +11122,7 @@
         <v>0</v>
       </c>
       <c r="AJ93">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="94" spans="1:36">
@@ -11196,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="AJ94">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="95" spans="1:36">
@@ -11306,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="AJ95">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="96" spans="1:36">
@@ -11416,7 +11452,7 @@
         <v>0</v>
       </c>
       <c r="AJ96">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="97" spans="1:36">
@@ -11526,7 +11562,7 @@
         <v>0</v>
       </c>
       <c r="AJ97">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="98" spans="1:36">
@@ -11636,7 +11672,7 @@
         <v>0</v>
       </c>
       <c r="AJ98">
-        <v>0.2692307692307692</v>
+        <v>0.2916666666666667</v>
       </c>
     </row>
     <row r="99" spans="1:36">
@@ -11746,7 +11782,7 @@
         <v>0</v>
       </c>
       <c r="AJ99">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="100" spans="1:36">
@@ -11856,7 +11892,7 @@
         <v>0</v>
       </c>
       <c r="AJ100">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="101" spans="1:36">
@@ -11966,7 +12002,7 @@
         <v>0</v>
       </c>
       <c r="AJ101">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="102" spans="1:36">
@@ -12076,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="AJ102">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="103" spans="1:36">
@@ -12186,7 +12222,7 @@
         <v>0</v>
       </c>
       <c r="AJ103">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="104" spans="1:36">
@@ -12296,7 +12332,7 @@
         <v>0</v>
       </c>
       <c r="AJ104">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="105" spans="1:36">
@@ -12406,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="AJ105">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="106" spans="1:36">
@@ -12516,7 +12552,7 @@
         <v>0</v>
       </c>
       <c r="AJ106">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="107" spans="1:36">
@@ -12626,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="AJ107">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="108" spans="1:36">
@@ -12736,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="AJ108">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="109" spans="1:36">
@@ -12846,7 +12882,7 @@
         <v>0</v>
       </c>
       <c r="AJ109">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="110" spans="1:36">
@@ -12956,7 +12992,7 @@
         <v>0</v>
       </c>
       <c r="AJ110">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="111" spans="1:36">
@@ -13066,7 +13102,7 @@
         <v>0</v>
       </c>
       <c r="AJ111">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="112" spans="1:36">
@@ -13176,7 +13212,7 @@
         <v>0</v>
       </c>
       <c r="AJ112">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="113" spans="1:36">
@@ -13286,7 +13322,7 @@
         <v>0</v>
       </c>
       <c r="AJ113">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="114" spans="1:36">
@@ -13396,7 +13432,7 @@
         <v>0</v>
       </c>
       <c r="AJ114">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="115" spans="1:36">
@@ -13506,7 +13542,7 @@
         <v>0</v>
       </c>
       <c r="AJ115">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="116" spans="1:36">
@@ -13616,7 +13652,7 @@
         <v>0</v>
       </c>
       <c r="AJ116">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="117" spans="1:36">
@@ -13726,7 +13762,7 @@
         <v>0</v>
       </c>
       <c r="AJ117">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="118" spans="1:36">
@@ -13836,7 +13872,7 @@
         <v>0</v>
       </c>
       <c r="AJ118">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="119" spans="1:36">
@@ -13946,7 +13982,7 @@
         <v>0</v>
       </c>
       <c r="AJ119">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="120" spans="1:36">
@@ -14056,7 +14092,7 @@
         <v>0</v>
       </c>
       <c r="AJ120">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="121" spans="1:36">
@@ -14166,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="AJ121">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="122" spans="1:36">
@@ -14276,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="AJ122">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="123" spans="1:36">
@@ -14386,7 +14422,7 @@
         <v>0</v>
       </c>
       <c r="AJ123">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="124" spans="1:36">
@@ -14496,7 +14532,7 @@
         <v>0</v>
       </c>
       <c r="AJ124">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="125" spans="1:36">
@@ -14606,7 +14642,7 @@
         <v>0</v>
       </c>
       <c r="AJ125">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="126" spans="1:36">
@@ -14716,7 +14752,7 @@
         <v>0</v>
       </c>
       <c r="AJ126">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="127" spans="1:36">
@@ -14826,7 +14862,7 @@
         <v>0</v>
       </c>
       <c r="AJ127">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="128" spans="1:36">
@@ -14936,7 +14972,7 @@
         <v>0</v>
       </c>
       <c r="AJ128">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="129" spans="1:36">
@@ -15046,7 +15082,7 @@
         <v>0</v>
       </c>
       <c r="AJ129">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="130" spans="1:36">
@@ -15156,7 +15192,7 @@
         <v>0</v>
       </c>
       <c r="AJ130">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="131" spans="1:36">
@@ -15266,7 +15302,7 @@
         <v>0</v>
       </c>
       <c r="AJ131">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="132" spans="1:36">
@@ -15376,7 +15412,7 @@
         <v>0</v>
       </c>
       <c r="AJ132">
-        <v>0.1153846153846154</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="133" spans="1:36">
@@ -15486,7 +15522,7 @@
         <v>0</v>
       </c>
       <c r="AJ133">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="134" spans="1:36">
@@ -15596,7 +15632,7 @@
         <v>0</v>
       </c>
       <c r="AJ134">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="135" spans="1:36">
@@ -15706,7 +15742,7 @@
         <v>0</v>
       </c>
       <c r="AJ135">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="136" spans="1:36">
@@ -15816,7 +15852,7 @@
         <v>0</v>
       </c>
       <c r="AJ136">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="137" spans="1:36">
@@ -15926,7 +15962,7 @@
         <v>0</v>
       </c>
       <c r="AJ137">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="138" spans="1:36">
@@ -16036,7 +16072,7 @@
         <v>0</v>
       </c>
       <c r="AJ138">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="139" spans="1:36">
@@ -16146,7 +16182,7 @@
         <v>0</v>
       </c>
       <c r="AJ139">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="140" spans="1:36">
@@ -16256,7 +16292,7 @@
         <v>0</v>
       </c>
       <c r="AJ140">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="141" spans="1:36">
@@ -16366,7 +16402,7 @@
         <v>0</v>
       </c>
       <c r="AJ141">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="142" spans="1:36">
@@ -16476,7 +16512,7 @@
         <v>0</v>
       </c>
       <c r="AJ142">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="143" spans="1:36">
@@ -16586,7 +16622,7 @@
         <v>0</v>
       </c>
       <c r="AJ143">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="144" spans="1:36">
@@ -16696,7 +16732,7 @@
         <v>0</v>
       </c>
       <c r="AJ144">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="145" spans="1:36">
@@ -16806,7 +16842,7 @@
         <v>0</v>
       </c>
       <c r="AJ145">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="146" spans="1:36">
@@ -16916,7 +16952,7 @@
         <v>0</v>
       </c>
       <c r="AJ146">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="147" spans="1:36">
@@ -17026,7 +17062,7 @@
         <v>0</v>
       </c>
       <c r="AJ147">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="148" spans="1:36">
@@ -17136,7 +17172,7 @@
         <v>0</v>
       </c>
       <c r="AJ148">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="149" spans="1:36">
@@ -17246,7 +17282,7 @@
         <v>0</v>
       </c>
       <c r="AJ149">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="150" spans="1:36">
@@ -17356,7 +17392,7 @@
         <v>0</v>
       </c>
       <c r="AJ150">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="151" spans="1:36">
@@ -17466,7 +17502,7 @@
         <v>0</v>
       </c>
       <c r="AJ151">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="152" spans="1:36">
@@ -17576,7 +17612,7 @@
         <v>0</v>
       </c>
       <c r="AJ152">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="153" spans="1:36">
@@ -17686,7 +17722,7 @@
         <v>0</v>
       </c>
       <c r="AJ153">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="154" spans="1:36">
@@ -17796,7 +17832,7 @@
         <v>0</v>
       </c>
       <c r="AJ154">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="155" spans="1:36">
@@ -17906,7 +17942,7 @@
         <v>0</v>
       </c>
       <c r="AJ155">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="156" spans="1:36">
@@ -18016,7 +18052,7 @@
         <v>0</v>
       </c>
       <c r="AJ156">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="157" spans="1:36">
@@ -18126,7 +18162,7 @@
         <v>0</v>
       </c>
       <c r="AJ157">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="158" spans="1:36">
@@ -18236,7 +18272,7 @@
         <v>0</v>
       </c>
       <c r="AJ158">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="159" spans="1:36">
@@ -18346,7 +18382,7 @@
         <v>0</v>
       </c>
       <c r="AJ159">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="160" spans="1:36">
@@ -18456,7 +18492,7 @@
         <v>0</v>
       </c>
       <c r="AJ160">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="161" spans="1:36">
@@ -18566,7 +18602,7 @@
         <v>0</v>
       </c>
       <c r="AJ161">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="162" spans="1:36">
@@ -18676,7 +18712,7 @@
         <v>0</v>
       </c>
       <c r="AJ162">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="163" spans="1:36">
@@ -18786,7 +18822,7 @@
         <v>0</v>
       </c>
       <c r="AJ163">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="164" spans="1:36">
@@ -18896,7 +18932,7 @@
         <v>0</v>
       </c>
       <c r="AJ164">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="165" spans="1:36">
@@ -19006,7 +19042,7 @@
         <v>0</v>
       </c>
       <c r="AJ165">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="166" spans="1:36">
@@ -19116,7 +19152,7 @@
         <v>0</v>
       </c>
       <c r="AJ166">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="167" spans="1:36">
@@ -19226,7 +19262,7 @@
         <v>0</v>
       </c>
       <c r="AJ167">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="168" spans="1:36">
@@ -19336,7 +19372,7 @@
         <v>0</v>
       </c>
       <c r="AJ168">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="169" spans="1:36">
@@ -19446,7 +19482,7 @@
         <v>0</v>
       </c>
       <c r="AJ169">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="170" spans="1:36">
@@ -19556,7 +19592,7 @@
         <v>0</v>
       </c>
       <c r="AJ170">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="171" spans="1:36">
@@ -19666,7 +19702,7 @@
         <v>0</v>
       </c>
       <c r="AJ171">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="172" spans="1:36">
@@ -19776,7 +19812,7 @@
         <v>0</v>
       </c>
       <c r="AJ172">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="173" spans="1:36">
@@ -19886,7 +19922,7 @@
         <v>0</v>
       </c>
       <c r="AJ173">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="174" spans="1:36">
@@ -19996,7 +20032,7 @@
         <v>0</v>
       </c>
       <c r="AJ174">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="175" spans="1:36">
@@ -20106,7 +20142,7 @@
         <v>0</v>
       </c>
       <c r="AJ175">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="176" spans="1:36">
@@ -20216,7 +20252,7 @@
         <v>0</v>
       </c>
       <c r="AJ176">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="177" spans="1:36">
@@ -20326,7 +20362,7 @@
         <v>0</v>
       </c>
       <c r="AJ177">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="178" spans="1:36">
@@ -20436,7 +20472,7 @@
         <v>0</v>
       </c>
       <c r="AJ178">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="179" spans="1:36">
@@ -20546,7 +20582,7 @@
         <v>0</v>
       </c>
       <c r="AJ179">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="180" spans="1:36">
@@ -20656,7 +20692,7 @@
         <v>0</v>
       </c>
       <c r="AJ180">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="181" spans="1:36">
@@ -20766,7 +20802,7 @@
         <v>0</v>
       </c>
       <c r="AJ181">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="182" spans="1:36">
@@ -20876,7 +20912,7 @@
         <v>0</v>
       </c>
       <c r="AJ182">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="183" spans="1:36">
@@ -20986,7 +21022,7 @@
         <v>0</v>
       </c>
       <c r="AJ183">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="184" spans="1:36">
@@ -21096,7 +21132,7 @@
         <v>0</v>
       </c>
       <c r="AJ184">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="185" spans="1:36">
@@ -21206,7 +21242,7 @@
         <v>0</v>
       </c>
       <c r="AJ185">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="186" spans="1:36">
@@ -21316,7 +21352,7 @@
         <v>0</v>
       </c>
       <c r="AJ186">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="187" spans="1:36">
@@ -21426,7 +21462,7 @@
         <v>0</v>
       </c>
       <c r="AJ187">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="188" spans="1:36">
@@ -21536,7 +21572,7 @@
         <v>0</v>
       </c>
       <c r="AJ188">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="189" spans="1:36">
@@ -21646,7 +21682,7 @@
         <v>0</v>
       </c>
       <c r="AJ189">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="190" spans="1:36">
@@ -21756,7 +21792,7 @@
         <v>0</v>
       </c>
       <c r="AJ190">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="191" spans="1:36">
@@ -21866,7 +21902,7 @@
         <v>0</v>
       </c>
       <c r="AJ191">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="192" spans="1:36">
@@ -21976,7 +22012,7 @@
         <v>0</v>
       </c>
       <c r="AJ192">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="193" spans="1:36">
@@ -22086,7 +22122,7 @@
         <v>0</v>
       </c>
       <c r="AJ193">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="194" spans="1:36">
@@ -22196,7 +22232,7 @@
         <v>0</v>
       </c>
       <c r="AJ194">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="195" spans="1:36">
@@ -22306,7 +22342,7 @@
         <v>0</v>
       </c>
       <c r="AJ195">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="196" spans="1:36">
@@ -22416,7 +22452,7 @@
         <v>0</v>
       </c>
       <c r="AJ196">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="197" spans="1:36">
@@ -22526,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="AJ197">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="198" spans="1:36">
@@ -22636,7 +22672,7 @@
         <v>0</v>
       </c>
       <c r="AJ198">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="199" spans="1:36">
@@ -22746,7 +22782,7 @@
         <v>0</v>
       </c>
       <c r="AJ199">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="200" spans="1:36">
@@ -22856,7 +22892,7 @@
         <v>0</v>
       </c>
       <c r="AJ200">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="201" spans="1:36">
@@ -22966,7 +23002,7 @@
         <v>0</v>
       </c>
       <c r="AJ201">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="202" spans="1:36">
@@ -23076,7 +23112,7 @@
         <v>0</v>
       </c>
       <c r="AJ202">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="203" spans="1:36">
@@ -23186,7 +23222,7 @@
         <v>0</v>
       </c>
       <c r="AJ203">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="204" spans="1:36">
@@ -23296,7 +23332,7 @@
         <v>0</v>
       </c>
       <c r="AJ204">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="205" spans="1:36">
@@ -23406,7 +23442,7 @@
         <v>0</v>
       </c>
       <c r="AJ205">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="206" spans="1:36">
@@ -23516,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="AJ206">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="207" spans="1:36">
@@ -23626,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="AJ207">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="208" spans="1:36">
@@ -23736,7 +23772,7 @@
         <v>0</v>
       </c>
       <c r="AJ208">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="209" spans="1:36">
@@ -23846,7 +23882,7 @@
         <v>0</v>
       </c>
       <c r="AJ209">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="210" spans="1:36">
@@ -23956,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="AJ210">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="211" spans="1:36">
@@ -24066,7 +24102,7 @@
         <v>0</v>
       </c>
       <c r="AJ211">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="212" spans="1:36">
@@ -24176,7 +24212,7 @@
         <v>0</v>
       </c>
       <c r="AJ212">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="213" spans="1:36">
@@ -24286,7 +24322,7 @@
         <v>0</v>
       </c>
       <c r="AJ213">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="214" spans="1:36">
@@ -24396,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="AJ214">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="215" spans="1:36">
@@ -24506,7 +24542,7 @@
         <v>0</v>
       </c>
       <c r="AJ215">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="216" spans="1:36">
@@ -24616,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="AJ216">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="217" spans="1:36">
@@ -24726,7 +24762,7 @@
         <v>0</v>
       </c>
       <c r="AJ217">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="218" spans="1:36">
@@ -24836,7 +24872,7 @@
         <v>0</v>
       </c>
       <c r="AJ218">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="219" spans="1:36">
@@ -24946,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="AJ219">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="220" spans="1:36">
@@ -25056,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="AJ220">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="221" spans="1:36">
@@ -25166,7 +25202,1327 @@
         <v>0</v>
       </c>
       <c r="AJ221">
-        <v>0.1923076923076923</v>
+        <v>0.2083333333333333</v>
+      </c>
+    </row>
+    <row r="222" spans="1:36">
+      <c r="A222" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>0</v>
+      </c>
+      <c r="AD222">
+        <v>0</v>
+      </c>
+      <c r="AE222">
+        <v>0</v>
+      </c>
+      <c r="AF222">
+        <v>1</v>
+      </c>
+      <c r="AG222">
+        <v>1</v>
+      </c>
+      <c r="AH222">
+        <v>0</v>
+      </c>
+      <c r="AI222">
+        <v>0</v>
+      </c>
+      <c r="AJ222">
+        <v>0.2083333333333333</v>
+      </c>
+    </row>
+    <row r="223" spans="1:36">
+      <c r="A223" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>0</v>
+      </c>
+      <c r="AF223">
+        <v>1</v>
+      </c>
+      <c r="AG223">
+        <v>1</v>
+      </c>
+      <c r="AH223">
+        <v>0</v>
+      </c>
+      <c r="AI223">
+        <v>0</v>
+      </c>
+      <c r="AJ223">
+        <v>0.2083333333333333</v>
+      </c>
+    </row>
+    <row r="224" spans="1:36">
+      <c r="A224" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+      <c r="AE224">
+        <v>0</v>
+      </c>
+      <c r="AF224">
+        <v>1</v>
+      </c>
+      <c r="AG224">
+        <v>1</v>
+      </c>
+      <c r="AH224">
+        <v>0</v>
+      </c>
+      <c r="AI224">
+        <v>0</v>
+      </c>
+      <c r="AJ224">
+        <v>0.2083333333333333</v>
+      </c>
+    </row>
+    <row r="225" spans="1:36">
+      <c r="A225" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
+      <c r="AD225">
+        <v>0</v>
+      </c>
+      <c r="AE225">
+        <v>0</v>
+      </c>
+      <c r="AF225">
+        <v>1</v>
+      </c>
+      <c r="AG225">
+        <v>1</v>
+      </c>
+      <c r="AH225">
+        <v>0</v>
+      </c>
+      <c r="AI225">
+        <v>0</v>
+      </c>
+      <c r="AJ225">
+        <v>0.2083333333333333</v>
+      </c>
+    </row>
+    <row r="226" spans="1:36">
+      <c r="A226" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
+      <c r="AC226">
+        <v>0</v>
+      </c>
+      <c r="AD226">
+        <v>0</v>
+      </c>
+      <c r="AE226">
+        <v>0</v>
+      </c>
+      <c r="AF226">
+        <v>1</v>
+      </c>
+      <c r="AG226">
+        <v>1</v>
+      </c>
+      <c r="AH226">
+        <v>0</v>
+      </c>
+      <c r="AI226">
+        <v>0</v>
+      </c>
+      <c r="AJ226">
+        <v>0.2083333333333333</v>
+      </c>
+    </row>
+    <row r="227" spans="1:36">
+      <c r="A227" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>0</v>
+      </c>
+      <c r="AF227">
+        <v>1</v>
+      </c>
+      <c r="AG227">
+        <v>1</v>
+      </c>
+      <c r="AH227">
+        <v>0</v>
+      </c>
+      <c r="AI227">
+        <v>0</v>
+      </c>
+      <c r="AJ227">
+        <v>0.2083333333333333</v>
+      </c>
+    </row>
+    <row r="228" spans="1:36">
+      <c r="A228" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>0</v>
+      </c>
+      <c r="AD228">
+        <v>0</v>
+      </c>
+      <c r="AE228">
+        <v>0</v>
+      </c>
+      <c r="AF228">
+        <v>1</v>
+      </c>
+      <c r="AG228">
+        <v>1</v>
+      </c>
+      <c r="AH228">
+        <v>0</v>
+      </c>
+      <c r="AI228">
+        <v>0</v>
+      </c>
+      <c r="AJ228">
+        <v>0.2083333333333333</v>
+      </c>
+    </row>
+    <row r="229" spans="1:36">
+      <c r="A229" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+      <c r="AD229">
+        <v>0</v>
+      </c>
+      <c r="AE229">
+        <v>0</v>
+      </c>
+      <c r="AF229">
+        <v>1</v>
+      </c>
+      <c r="AG229">
+        <v>1</v>
+      </c>
+      <c r="AH229">
+        <v>0</v>
+      </c>
+      <c r="AI229">
+        <v>0</v>
+      </c>
+      <c r="AJ229">
+        <v>0.2083333333333333</v>
+      </c>
+    </row>
+    <row r="230" spans="1:36">
+      <c r="A230" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
+      <c r="AE230">
+        <v>0</v>
+      </c>
+      <c r="AF230">
+        <v>1</v>
+      </c>
+      <c r="AG230">
+        <v>1</v>
+      </c>
+      <c r="AH230">
+        <v>0</v>
+      </c>
+      <c r="AI230">
+        <v>0</v>
+      </c>
+      <c r="AJ230">
+        <v>0.2083333333333333</v>
+      </c>
+    </row>
+    <row r="231" spans="1:36">
+      <c r="A231" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>0</v>
+      </c>
+      <c r="AD231">
+        <v>0</v>
+      </c>
+      <c r="AE231">
+        <v>0</v>
+      </c>
+      <c r="AF231">
+        <v>1</v>
+      </c>
+      <c r="AG231">
+        <v>1</v>
+      </c>
+      <c r="AH231">
+        <v>0</v>
+      </c>
+      <c r="AI231">
+        <v>0</v>
+      </c>
+      <c r="AJ231">
+        <v>0.2083333333333333</v>
+      </c>
+    </row>
+    <row r="232" spans="1:36">
+      <c r="A232" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>0</v>
+      </c>
+      <c r="AF232">
+        <v>1</v>
+      </c>
+      <c r="AG232">
+        <v>1</v>
+      </c>
+      <c r="AH232">
+        <v>0</v>
+      </c>
+      <c r="AI232">
+        <v>0</v>
+      </c>
+      <c r="AJ232">
+        <v>0.2083333333333333</v>
+      </c>
+    </row>
+    <row r="233" spans="1:36">
+      <c r="A233" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <v>0</v>
+      </c>
+      <c r="AD233">
+        <v>0</v>
+      </c>
+      <c r="AE233">
+        <v>0</v>
+      </c>
+      <c r="AF233">
+        <v>1</v>
+      </c>
+      <c r="AG233">
+        <v>1</v>
+      </c>
+      <c r="AH233">
+        <v>0</v>
+      </c>
+      <c r="AI233">
+        <v>0</v>
+      </c>
+      <c r="AJ233">
+        <v>0.2083333333333333</v>
       </c>
     </row>
   </sheetData>
